--- a/inst/extdata/toyFiles/ROC/rocCrStrRdrsTrts.xlsx
+++ b/inst/extdata/toyFiles/ROC/rocCrStrRdrsTrts.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="11208"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="5" rupBuild="10510"/>
   <workbookPr autoCompressPictures="0"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/Dev/GitHub/RJafroc/inst/extdata/toyFiles/ROC/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7736429F-86C0-BF41-9E26-CA2AD4429412}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8CF5CA10-EF0B-C044-8DA3-1205A0910F0A}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3420" yWindow="5800" windowWidth="10000" windowHeight="10140" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="3420" yWindow="5800" windowWidth="10000" windowHeight="10140" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="FP" sheetId="2" r:id="rId1"/>
@@ -53,9 +53,6 @@
     <t>Paradigm</t>
   </si>
   <si>
-    <t>crossed</t>
-  </si>
-  <si>
     <t>ROC</t>
   </si>
   <si>
@@ -84,6 +81,9 @@
   </si>
   <si>
     <t>Trt1</t>
+  </si>
+  <si>
+    <t>FCTRL</t>
   </si>
 </sst>
 </file>
@@ -488,7 +488,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:D31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="B2" sqref="B2:B31"/>
     </sheetView>
   </sheetViews>
@@ -513,10 +513,10 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A2" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>1</v>
@@ -527,10 +527,10 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A3" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>2</v>
@@ -541,10 +541,10 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A4" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>3</v>
@@ -555,10 +555,10 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A5" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B5" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>1</v>
@@ -569,10 +569,10 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A6" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B6" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>2</v>
@@ -583,10 +583,10 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A7" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>3</v>
@@ -597,10 +597,10 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A8" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B8" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>1</v>
@@ -611,10 +611,10 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A9" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B9" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>2</v>
@@ -625,10 +625,10 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A10" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B10" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>3</v>
@@ -639,10 +639,10 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A11" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B11" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>1</v>
@@ -653,10 +653,10 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A12" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B12" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>2</v>
@@ -667,10 +667,10 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A13" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B13" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>3</v>
@@ -681,10 +681,10 @@
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A14" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B14" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>1</v>
@@ -695,10 +695,10 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A15" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B15" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>2</v>
@@ -709,10 +709,10 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A16" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B16" s="1" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>3</v>
@@ -723,10 +723,10 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A17" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B17" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C17" s="1">
         <v>1</v>
@@ -737,10 +737,10 @@
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A18" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B18" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C18" s="1">
         <v>2</v>
@@ -751,10 +751,10 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A19" s="1" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B19" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C19" s="1">
         <v>3</v>
@@ -765,10 +765,10 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A20" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B20" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C20" s="1">
         <v>1</v>
@@ -779,10 +779,10 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A21" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B21" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C21" s="1">
         <v>2</v>
@@ -793,10 +793,10 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A22" s="1" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B22" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C22" s="1">
         <v>3</v>
@@ -807,10 +807,10 @@
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A23" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B23" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C23" s="1">
         <v>1</v>
@@ -821,10 +821,10 @@
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A24" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B24" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C24" s="1">
         <v>2</v>
@@ -835,10 +835,10 @@
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A25" s="1" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B25" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C25" s="1">
         <v>3</v>
@@ -849,10 +849,10 @@
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A26" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B26" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C26" s="1">
         <v>1</v>
@@ -863,10 +863,10 @@
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A27" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B27" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1">
         <v>2</v>
@@ -877,10 +877,10 @@
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A28" s="1" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B28" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1">
         <v>3</v>
@@ -891,10 +891,10 @@
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A29" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B29" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>1</v>
@@ -905,10 +905,10 @@
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A30" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B30" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1">
         <v>2</v>
@@ -919,10 +919,10 @@
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.2">
       <c r="A31" s="1" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B31" s="1" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1">
         <v>3</v>
@@ -973,10 +973,10 @@
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A2" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B2" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C2" s="1">
         <v>70</v>
@@ -990,10 +990,10 @@
     </row>
     <row r="3" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A3" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3" s="1">
         <v>71</v>
@@ -1007,10 +1007,10 @@
     </row>
     <row r="4" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A4" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B4" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C4" s="1">
         <v>72</v>
@@ -1024,10 +1024,10 @@
     </row>
     <row r="5" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A5" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B5" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C5" s="1">
         <v>73</v>
@@ -1041,10 +1041,10 @@
     </row>
     <row r="6" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A6" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B6" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C6" s="1">
         <v>74</v>
@@ -1058,10 +1058,10 @@
     </row>
     <row r="7" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A7" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C7" s="1">
         <v>70</v>
@@ -1075,10 +1075,10 @@
     </row>
     <row r="8" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A8" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C8" s="1">
         <v>71</v>
@@ -1092,10 +1092,10 @@
     </row>
     <row r="9" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A9" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B9" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C9" s="1">
         <v>72</v>
@@ -1109,10 +1109,10 @@
     </row>
     <row r="10" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A10" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B10" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C10" s="1">
         <v>73</v>
@@ -1126,10 +1126,10 @@
     </row>
     <row r="11" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A11" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B11" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C11" s="1">
         <v>74</v>
@@ -1143,10 +1143,10 @@
     </row>
     <row r="12" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A12" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B12" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C12" s="1">
         <v>70</v>
@@ -1160,10 +1160,10 @@
     </row>
     <row r="13" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A13" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C13" s="1">
         <v>71</v>
@@ -1177,10 +1177,10 @@
     </row>
     <row r="14" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A14" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B14" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C14" s="1">
         <v>72</v>
@@ -1194,10 +1194,10 @@
     </row>
     <row r="15" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A15" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B15" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C15" s="1">
         <v>73</v>
@@ -1211,10 +1211,10 @@
     </row>
     <row r="16" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A16" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C16" s="1">
         <v>74</v>
@@ -1228,10 +1228,10 @@
     </row>
     <row r="17" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A17" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B17" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C17" s="1">
         <v>70</v>
@@ -1245,10 +1245,10 @@
     </row>
     <row r="18" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A18" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B18" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C18" s="1">
         <v>71</v>
@@ -1262,10 +1262,10 @@
     </row>
     <row r="19" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A19" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C19" s="1">
         <v>72</v>
@@ -1279,10 +1279,10 @@
     </row>
     <row r="20" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A20" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B20" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C20" s="1">
         <v>73</v>
@@ -1296,10 +1296,10 @@
     </row>
     <row r="21" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A21" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B21" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C21" s="1">
         <v>74</v>
@@ -1313,10 +1313,10 @@
     </row>
     <row r="22" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A22" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B22" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C22" s="1">
         <v>70</v>
@@ -1330,10 +1330,10 @@
     </row>
     <row r="23" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A23" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B23" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C23" s="1">
         <v>71</v>
@@ -1347,10 +1347,10 @@
     </row>
     <row r="24" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A24" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B24" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C24" s="1">
         <v>72</v>
@@ -1364,10 +1364,10 @@
     </row>
     <row r="25" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A25" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B25" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C25" s="1">
         <v>73</v>
@@ -1381,10 +1381,10 @@
     </row>
     <row r="26" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A26" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B26" s="2" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C26" s="1">
         <v>74</v>
@@ -1398,10 +1398,10 @@
     </row>
     <row r="27" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A27" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B27" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C27" s="1">
         <v>70</v>
@@ -1415,10 +1415,10 @@
     </row>
     <row r="28" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B28" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C28" s="1">
         <v>71</v>
@@ -1432,10 +1432,10 @@
     </row>
     <row r="29" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A29" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B29" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C29" s="1">
         <v>72</v>
@@ -1449,10 +1449,10 @@
     </row>
     <row r="30" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A30" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B30" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C30" s="1">
         <v>73</v>
@@ -1466,10 +1466,10 @@
     </row>
     <row r="31" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A31" s="2" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B31" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C31" s="1">
         <v>74</v>
@@ -1483,10 +1483,10 @@
     </row>
     <row r="32" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A32" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B32" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C32" s="1">
         <v>70</v>
@@ -1500,10 +1500,10 @@
     </row>
     <row r="33" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A33" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B33" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C33" s="1">
         <v>71</v>
@@ -1517,10 +1517,10 @@
     </row>
     <row r="34" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A34" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B34" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C34" s="1">
         <v>72</v>
@@ -1534,10 +1534,10 @@
     </row>
     <row r="35" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A35" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B35" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C35" s="1">
         <v>73</v>
@@ -1551,10 +1551,10 @@
     </row>
     <row r="36" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A36" s="2" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B36" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C36" s="1">
         <v>74</v>
@@ -1568,10 +1568,10 @@
     </row>
     <row r="37" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A37" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B37" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C37" s="1">
         <v>70</v>
@@ -1585,10 +1585,10 @@
     </row>
     <row r="38" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A38" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B38" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C38" s="1">
         <v>71</v>
@@ -1602,10 +1602,10 @@
     </row>
     <row r="39" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A39" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B39" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C39" s="1">
         <v>72</v>
@@ -1619,10 +1619,10 @@
     </row>
     <row r="40" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A40" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B40" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C40" s="1">
         <v>73</v>
@@ -1636,10 +1636,10 @@
     </row>
     <row r="41" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A41" s="2" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B41" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C41" s="1">
         <v>74</v>
@@ -1653,10 +1653,10 @@
     </row>
     <row r="42" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A42" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B42" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C42" s="1">
         <v>70</v>
@@ -1670,10 +1670,10 @@
     </row>
     <row r="43" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A43" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B43" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C43" s="1">
         <v>71</v>
@@ -1687,10 +1687,10 @@
     </row>
     <row r="44" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A44" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B44" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C44" s="1">
         <v>72</v>
@@ -1704,10 +1704,10 @@
     </row>
     <row r="45" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A45" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B45" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C45" s="1">
         <v>73</v>
@@ -1721,10 +1721,10 @@
     </row>
     <row r="46" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A46" s="2" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B46" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C46" s="1">
         <v>74</v>
@@ -1738,10 +1738,10 @@
     </row>
     <row r="47" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A47" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B47" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C47" s="1">
         <v>70</v>
@@ -1755,10 +1755,10 @@
     </row>
     <row r="48" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A48" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B48" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C48" s="1">
         <v>71</v>
@@ -1772,10 +1772,10 @@
     </row>
     <row r="49" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A49" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B49" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C49" s="1">
         <v>72</v>
@@ -1789,10 +1789,10 @@
     </row>
     <row r="50" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A50" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B50" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C50" s="1">
         <v>73</v>
@@ -1806,10 +1806,10 @@
     </row>
     <row r="51" spans="1:5" x14ac:dyDescent="0.2">
       <c r="A51" s="2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B51" s="2" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C51" s="1">
         <v>74</v>
@@ -1835,8 +1835,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:F26"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F14" sqref="F14"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F3" sqref="F3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
@@ -1878,13 +1878,13 @@
         <v>0</v>
       </c>
       <c r="D2" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E2" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F2" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
     </row>
     <row r="3" spans="1:6" x14ac:dyDescent="0.2">
@@ -1898,13 +1898,13 @@
         <v>0</v>
       </c>
       <c r="D3" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E3" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="E3" s="2" t="s">
-        <v>11</v>
-      </c>
       <c r="F3" s="2" t="s">
-        <v>8</v>
+        <v>18</v>
       </c>
     </row>
     <row r="4" spans="1:6" x14ac:dyDescent="0.2">
@@ -1918,10 +1918,10 @@
         <v>0</v>
       </c>
       <c r="D4" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E4" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E4" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F4"/>
     </row>
@@ -1936,10 +1936,10 @@
         <v>1</v>
       </c>
       <c r="D5" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E5" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E5" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F5"/>
     </row>
@@ -1954,10 +1954,10 @@
         <v>1</v>
       </c>
       <c r="D6" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E6" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E6" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F6"/>
     </row>
@@ -1972,10 +1972,10 @@
         <v>1</v>
       </c>
       <c r="D7" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E7" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E7" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F7"/>
     </row>
@@ -1990,10 +1990,10 @@
         <v>1</v>
       </c>
       <c r="D8" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E8" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F8"/>
     </row>
@@ -2008,10 +2008,10 @@
         <v>1</v>
       </c>
       <c r="D9" s="2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E9" s="2" t="s">
         <v>10</v>
-      </c>
-      <c r="E9" s="2" t="s">
-        <v>11</v>
       </c>
       <c r="F9"/>
     </row>
